--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61595.22050704772</v>
+        <v>12189414.9262618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61595.22050704772</v>
+        <v>12189414.9262618</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23347.96616165017</v>
+        <v>3054337.850556358</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23347.96616165017</v>
+        <v>3054337.850556358</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495394234.044746</v>
+        <v>58987106.24185763</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12417.53222360683</v>
+        <v>1345103.796380629</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23889.95085065672</v>
+        <v>2557131.716144511</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35362.3694777066</v>
+        <v>3769159.635908394</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47667.84596608389</v>
+        <v>4862421.159424359</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59567.13873786225</v>
+        <v>6023160.221901768</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71452.49373186285</v>
+        <v>7181125.666601394</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83528.5594050237</v>
+        <v>8435998.017491326</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95469.048512528</v>
+        <v>9663890.631815601</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107726.1404711871</v>
+        <v>10726777.98493539</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119165.5720278736</v>
+        <v>11952211.62732578</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130605.0035845616</v>
+        <v>13177645.26971596</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142044.4351412495</v>
+        <v>14403078.91210616</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>153406.0445107542</v>
+        <v>15625764.16721959</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>165711.5209991321</v>
+        <v>16719025.69073548</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>180437.9340931351</v>
+        <v>17327261.24137578</v>
       </c>
     </row>
   </sheetData>
